--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5848224964110241</v>
+        <v>-0.5879243250066346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5666826443243927</v>
+        <v>-0.5666016734458824</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.309071561290408</v>
+        <v>-1.134566636384134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.133058849043108</v>
+        <v>-3.345931857092451</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.082426119164851</v>
+        <v>-2.50641017281145</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.209233675966994</v>
+        <v>-3.478001240471215</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.64677560824026</v>
+        <v>-1.654700244447582</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.133276201106897</v>
+        <v>-1.08722694641591</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.886358634262756</v>
+        <v>-1.844334183647584</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.076531467294684</v>
+        <v>1.075423872533807</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.519277195483044</v>
+        <v>1.445724947587322</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06644948951610304</v>
+        <v>0.02270098273729116</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.79689587334712</v>
+        <v>1.803841492967336</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8104843180548474</v>
+        <v>0.6888269481948529</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2723567966012599</v>
+        <v>0.1295967595473786</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.139710190039116</v>
+        <v>1.160559214249499</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1327083868655595</v>
+        <v>-0.1188985451457545</v>
       </c>
     </row>
     <row r="7">
@@ -783,19 +783,19 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.9108755290007472</v>
+        <v>-0.9177908212346786</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6824532926793659</v>
+        <v>-0.7295562632396533</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8081830320353474</v>
+        <v>-0.8212236957101871</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6186569911893608</v>
+        <v>-0.6332784980467595</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>-1</v>
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.4535274928575543</v>
+        <v>0.1974964868261611</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.156900010019016</v>
+        <v>1.221607764983659</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.595676219897007</v>
+        <v>1.40747499904599</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4383778083319932</v>
+        <v>0.2391329544522011</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.379353528388708</v>
+        <v>1.413523185236402</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.077882435872831</v>
+        <v>0.5547366340054372</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>0.07516903546841702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.2487302714699748</v>
+        <v>-0.2487302714699751</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8624417971928373</v>
@@ -857,7 +857,7 @@
         <v>0.8771788078311897</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3448966916836493</v>
+        <v>0.3448966916836497</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7145699743096031</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.019788978889836</v>
+        <v>-0.8201272280186708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.319251843289037</v>
+        <v>-1.186865196695841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.819742468639502</v>
+        <v>-1.564072259729557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.672476363248686</v>
+        <v>-0.7078486691791989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6895300559766341</v>
+        <v>-0.6591018106455772</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.220434188820268</v>
+        <v>-1.08773787599099</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4041558215523789</v>
+        <v>-0.3580682821784203</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5599292547173811</v>
+        <v>-0.6031561870967188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.036744673234398</v>
+        <v>-0.9433426010104708</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.370950523166281</v>
+        <v>2.263066808872513</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.479090835237908</v>
+        <v>1.62468795702075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.834235255620446</v>
+        <v>1.926555596103909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.542704607384833</v>
+        <v>2.722917145588012</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.502409512721275</v>
+        <v>2.526931694496146</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.232103442632972</v>
+        <v>2.381239978653343</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.990131125174517</v>
+        <v>1.917052748888231</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.572782232363698</v>
+        <v>1.49867489269556</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.419488128815693</v>
+        <v>1.495811382275845</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>0.04223267453393757</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1397456351045367</v>
+        <v>-0.1397456351045369</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5295166667833056</v>
@@ -962,7 +962,7 @@
         <v>0.5385648051933062</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2117575321133011</v>
+        <v>0.2117575321133014</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4177760111414756</v>
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4487131376843888</v>
+        <v>-0.4189037629671377</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5659593032128001</v>
+        <v>-0.5436514013059465</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7685756048824699</v>
+        <v>-0.7293324949680727</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3237075922535844</v>
+        <v>-0.3476651383616331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3440268547010071</v>
+        <v>-0.3284548412916413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5662879297603224</v>
+        <v>-0.5679214659486329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2153285730544818</v>
+        <v>-0.1707734482708287</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2645977011704275</v>
+        <v>-0.2844354467094213</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5225595821372397</v>
+        <v>-0.4992096571007475</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.963901481742344</v>
+        <v>1.979578018923618</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.410594910032895</v>
+        <v>1.532509481976438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.572973638408386</v>
+        <v>1.708039941951412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.761063614676766</v>
+        <v>2.601937999230846</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.580019760777994</v>
+        <v>2.779129924815092</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.281663147977858</v>
+        <v>2.414710092773792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.617909408292802</v>
+        <v>1.573868936003638</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.328538308523334</v>
+        <v>1.204331808092905</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.14778254388902</v>
+        <v>1.242234875080079</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>1.606419063099949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.619684863599201</v>
+        <v>1.6196848635992</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.806805335175195</v>
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.05819644022710217</v>
+        <v>-0.05036240082735507</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02059794971333713</v>
+        <v>0.01895439979404117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03545397080333394</v>
+        <v>0.07261568273833199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3880133428526166</v>
+        <v>-0.4763654193001542</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.57133721679451</v>
+        <v>-0.7388096612726773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.2961025317001</v>
+        <v>-1.390655273566129</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3437852271257233</v>
+        <v>0.277121382028723</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2934618547498799</v>
+        <v>-0.02392076645795731</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.173696610369258</v>
+        <v>-0.09540195370155558</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.484755973290099</v>
+        <v>3.428847083576568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.33533998389131</v>
+        <v>3.409481325005478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.291152268167239</v>
+        <v>3.336143355743364</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.189060910400372</v>
+        <v>4.153793612342615</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.730224476886186</v>
+        <v>4.079049640892064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.740023811924353</v>
+        <v>2.804308150874147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.162268593022954</v>
+        <v>3.117533498358498</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.059377366782255</v>
+        <v>2.972592626413197</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.517445932035071</v>
+        <v>2.768294958649169</v>
       </c>
     </row>
     <row r="19">
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1802683688310614</v>
+        <v>-0.09826390421365164</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1596882279543973</v>
+        <v>-0.0783853876417174</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04858658402074485</v>
+        <v>-0.08091628128173144</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1398957677285284</v>
+        <v>-0.1280179073986738</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1226127255780886</v>
+        <v>-0.1580750700180935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2522233007727358</v>
+        <v>-0.2683216146396719</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0950703258969403</v>
+        <v>0.07521807599921575</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08067130303689021</v>
+        <v>-0.01484621227597552</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05924273037108479</v>
+        <v>-0.03330268207015084</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.561555811714912</v>
+        <v>5.010015440384898</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.451816122808503</v>
+        <v>4.404912742707938</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.405649494073975</v>
+        <v>4.473326041612417</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.446865893857708</v>
+        <v>1.383793623727591</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.378002622083298</v>
+        <v>1.384375708276531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.915370779955377</v>
+        <v>1.010143749902027</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.512311014771754</v>
+        <v>1.510061388156867</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.419025894370919</v>
+        <v>1.416174919662647</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.218341302539096</v>
+        <v>1.36983045744559</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1276,7 @@
         <v>1.078599824710474</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.41098837683834</v>
+        <v>3.410988376838338</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.958002905463289</v>
@@ -1285,7 +1285,7 @@
         <v>0.828517420339743</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9557670446089337</v>
+        <v>0.9557670446089322</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.578096049408573</v>
@@ -1294,7 +1294,7 @@
         <v>0.964442437718787</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.208264612909523</v>
+        <v>2.208264612909525</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.100280318437656</v>
+        <v>-1.382198173297019</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.22837840005115</v>
+        <v>-1.055512456403001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.107397083296161</v>
+        <v>0.9312823214879152</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.421108049425301</v>
+        <v>-1.172679194115183</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.29100769945516</v>
+        <v>-2.111303435945891</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.669285484423402</v>
+        <v>-1.713914851530182</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4795597468066851</v>
+        <v>-0.6000120815573043</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9999256216382969</v>
+        <v>-1.101755805566067</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.380018004336441</v>
+        <v>0.2576855867979239</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.724015221175361</v>
+        <v>3.474874431452192</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.366009429614913</v>
+        <v>3.457532918091391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.076101972142226</v>
+        <v>6.152313939627329</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.083047124094503</v>
+        <v>5.402819756796949</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.096282437000242</v>
+        <v>3.902450785546067</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.409566729237978</v>
+        <v>3.828463196211632</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.463840164549683</v>
+        <v>3.537195017777379</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.862923388967953</v>
+        <v>2.653078019426609</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.152095463968504</v>
+        <v>3.850084384180306</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1390,7 @@
         <v>0.1201087013787068</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1385558537821331</v>
+        <v>0.1385558537821329</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.319484063837822</v>
@@ -1399,7 +1399,7 @@
         <v>0.1952504661902741</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4470610979768903</v>
+        <v>0.4470610979768906</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.284648995151999</v>
+        <v>-0.3499685960615389</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3068922699054593</v>
+        <v>-0.2845158832649367</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1704869186770278</v>
+        <v>0.1687205370195481</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.164670516828225</v>
+        <v>-0.1486925316029643</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2760715943074002</v>
+        <v>-0.2472818174867838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.212699501171103</v>
+        <v>-0.2018674762905803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.09043013239250618</v>
+        <v>-0.1159867615236021</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1860764224847072</v>
+        <v>-0.1920399985304153</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05615802872916432</v>
+        <v>0.03754504542992355</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.798560243274262</v>
+        <v>1.71530840834256</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.734876932827138</v>
+        <v>1.750083795336532</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.292858022584718</v>
+        <v>3.188858235227304</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9720893661387057</v>
+        <v>1.015730719935756</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7474604286081821</v>
+        <v>0.7250167953321389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6434781491053713</v>
+        <v>0.7751625743449022</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8328288105811152</v>
+        <v>0.8443685416937214</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7386055530794778</v>
+        <v>0.6617817307833022</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.090406769601505</v>
+        <v>0.9572825022543514</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1490,7 @@
         <v>1.984429755343756</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.471215489761564</v>
+        <v>1.471215489761563</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.048509701471283</v>
@@ -1499,7 +1499,7 @@
         <v>5.470272892411219</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.511801435782208</v>
+        <v>4.511801435782206</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.15216037592523</v>
@@ -1508,7 +1508,7 @@
         <v>3.757026123014865</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.949705305148963</v>
+        <v>2.949705305148965</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.639967320173493</v>
+        <v>-3.639988729517688</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.375507575806689</v>
+        <v>-1.336406295432102</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.481245010103068</v>
+        <v>-1.611896114128314</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.199049156455567</v>
+        <v>-1.254021048831287</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.401348475721711</v>
+        <v>1.59831750624507</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5457489734074111</v>
+        <v>1.18485132147298</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.407885426178703</v>
+        <v>-1.380591743836491</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.097113763331476</v>
+        <v>1.23697856127818</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6303420085371267</v>
+        <v>0.8967681780518532</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.699849321902649</v>
+        <v>1.735774782832354</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.901695533037265</v>
+        <v>5.025249935052599</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.964413310208603</v>
+        <v>3.92242687950296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.721033210669701</v>
+        <v>6.721468885589419</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.617223656209381</v>
+        <v>9.45985714053486</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.676436407739128</v>
+        <v>7.630927546237356</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.359487317490255</v>
+        <v>3.555200881649761</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.117746022673936</v>
+        <v>6.243769439224037</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.825863671633126</v>
+        <v>4.978051765467346</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1595,7 @@
         <v>0.4653608595833666</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3450089896627288</v>
+        <v>0.3450089896627285</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3957558643851145</v>
@@ -1604,7 +1604,7 @@
         <v>0.7101478390945694</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5857195981007469</v>
+        <v>0.5857195981007468</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1913503033599095</v>
@@ -1613,7 +1613,7 @@
         <v>0.6239652945820914</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4898857978077329</v>
+        <v>0.4898857978077331</v>
       </c>
     </row>
     <row r="32">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6264028927490628</v>
+        <v>-0.6087899103885607</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2695950074184605</v>
+        <v>-0.2479756330366917</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2574858281310131</v>
+        <v>-0.2545398609311275</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1211769989052446</v>
+        <v>-0.133775668154813</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1298004492721422</v>
+        <v>0.1603064264469787</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04245733573726052</v>
+        <v>0.1178898729883013</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1970433820114062</v>
+        <v>-0.1879040183880922</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1459020709288668</v>
+        <v>0.1785172719731528</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.08070465110762451</v>
+        <v>0.09961656028764608</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6402881439721536</v>
+        <v>0.560527555261348</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.758721224071599</v>
+        <v>1.72623343200342</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.415316535606046</v>
+        <v>1.479844621015562</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.166778703241409</v>
+        <v>1.132741702702313</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.593771567688311</v>
+        <v>1.640026568837951</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.358819449093988</v>
+        <v>1.296019929509759</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.668130179055662</v>
+        <v>0.7550656592915305</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.289293031916395</v>
+        <v>1.318534356040108</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.011882339086725</v>
+        <v>1.051638613368299</v>
       </c>
     </row>
     <row r="34">
@@ -1722,7 +1722,7 @@
         <v>0.3800575709579507</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.449999975709337</v>
+        <v>1.44999997570934</v>
       </c>
     </row>
     <row r="35">
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.409671859793947</v>
+        <v>-3.647477031926953</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.507995980699249</v>
+        <v>-4.600903080369822</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.349821950241098</v>
+        <v>-3.356756452301483</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.504725894684466</v>
+        <v>-5.073728234372615</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.857268076730138</v>
+        <v>-3.107530629474854</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8626934187696975</v>
+        <v>-1.242385980758698</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.871341167705766</v>
+        <v>-2.780693251270311</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.874778210560244</v>
+        <v>-2.575733007935661</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.138156021910122</v>
+        <v>-1.17463350288216</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1768,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.368016359773541</v>
+        <v>4.178974785241588</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.277950503562932</v>
+        <v>2.063548706949696</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.02972293245338</v>
+        <v>2.987714894119666</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.629916813960842</v>
+        <v>4.383786755118075</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.348446091365928</v>
+        <v>6.27788103840278</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.421072474463794</v>
+        <v>6.702436539479499</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.040106066853658</v>
+        <v>3.104165291212441</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.152844909213558</v>
+        <v>3.3376152949362</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.898663910968309</v>
+        <v>4.090529176259381</v>
       </c>
     </row>
     <row r="37">
@@ -1827,7 +1827,7 @@
         <v>0.04661033255319106</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1778282719104384</v>
+        <v>0.1778282719104387</v>
       </c>
     </row>
     <row r="38">
@@ -1838,31 +1838,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5380604066673156</v>
+        <v>-0.5526513032724757</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6439812621767683</v>
+        <v>-0.6609034869898358</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4633500745926651</v>
+        <v>-0.4796221713783497</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3322181907630317</v>
+        <v>-0.3924665568788412</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2182616174208978</v>
+        <v>-0.2395999509235305</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07081356847106908</v>
+        <v>-0.09462781262040508</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3022592997572827</v>
+        <v>-0.3012415384104319</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2931355464792966</v>
+        <v>-0.2806806979403684</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1154889812267778</v>
+        <v>-0.1121799421495807</v>
       </c>
     </row>
     <row r="39">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.367323222333436</v>
+        <v>1.236840826079594</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8679347167207266</v>
+        <v>0.6893186123380911</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9919083611331512</v>
+        <v>1.042627049571888</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5302900128046792</v>
+        <v>0.4988991889157514</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7549503231862521</v>
+        <v>0.7713203878310572</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9141801402482304</v>
+        <v>0.7676223978636915</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4382827373190383</v>
+        <v>0.4745229156562461</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4620911863156368</v>
+        <v>0.4794856481979599</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6156043629297585</v>
+        <v>0.6401666393421717</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>-0.8913694537726579</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.125809535067357</v>
+        <v>1.125809535067356</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5.282483327976953</v>
@@ -1927,7 +1927,7 @@
         <v>4.030439762664298</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.850447330209485</v>
+        <v>8.850447330209482</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.523454513138841</v>
@@ -1936,7 +1936,7 @@
         <v>2.099404829953682</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.736529814679228</v>
+        <v>5.736529814679231</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.650620811285087</v>
+        <v>-3.979666541357031</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.049711814205211</v>
+        <v>-5.286176586576112</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.345471865947355</v>
+        <v>-3.43336183476473</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.6983588517828513</v>
+        <v>0.2010329714104692</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.003514033103883</v>
+        <v>-0.6584260930231929</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.339084852882474</v>
+        <v>4.227301407626489</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1176434288557773</v>
+        <v>0.1166314262999396</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.204561412164808</v>
+        <v>-1.291459171285293</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.311689103135726</v>
+        <v>2.525898192705326</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.833520573939819</v>
+        <v>6.162458839633687</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.124370634938956</v>
+        <v>3.313600424308607</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.94143515593372</v>
+        <v>4.787036494356423</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.3265979172073</v>
+        <v>9.963495691279833</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.791568465366577</v>
+        <v>9.374120192553569</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>12.71483553713986</v>
+        <v>12.66712412785813</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.25981234300572</v>
+        <v>6.86299885405243</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.323015703321716</v>
+        <v>5.450428947475098</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>8.490705255805379</v>
+        <v>8.652858422510713</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>-0.1281107636562037</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1618053195097484</v>
+        <v>0.1618053195097481</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.6454160427408738</v>
@@ -2032,7 +2032,7 @@
         <v>0.4924408314451773</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.081351390566142</v>
+        <v>1.081351390566141</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4569320394688864</v>
@@ -2041,7 +2041,7 @@
         <v>0.2722570497346922</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7439302133520023</v>
+        <v>0.7439302133520026</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.501665591086811</v>
+        <v>-0.4342149751821633</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.535871246969734</v>
+        <v>-0.5753713703784379</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3316041652447342</v>
+        <v>-0.3532438992348673</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.01726850217168206</v>
+        <v>-0.003286696381391622</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1120478213119161</v>
+        <v>-0.07842647339486847</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3722192252001141</v>
+        <v>0.3580704117389032</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.001735532965359243</v>
+        <v>0.004770944776769944</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1343381700329603</v>
+        <v>-0.1493475152346928</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2037991052080738</v>
+        <v>0.2580783918452598</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.18528219159585</v>
+        <v>1.396461457399309</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7016235297878632</v>
+        <v>0.742134577549414</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.100915231564293</v>
+        <v>1.073409692917425</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.803423018982341</v>
+        <v>1.657261918090774</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.489162981688568</v>
+        <v>1.562352302244375</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.248783822917883</v>
+        <v>2.248095698261066</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.189087237739216</v>
+        <v>1.117310493678169</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8278329561117953</v>
+        <v>0.8599188211781793</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.370028127780323</v>
+        <v>1.492783680221151</v>
       </c>
     </row>
     <row r="46">
@@ -2141,7 +2141,7 @@
         <v>2.305088435582453</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.086081752780349</v>
+        <v>3.086081752780347</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.297663962499146</v>
@@ -2150,7 +2150,7 @@
         <v>1.626040548662887</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.418405875604181</v>
+        <v>2.418405875604182</v>
       </c>
     </row>
     <row r="47">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.09334181086066293</v>
+        <v>-0.02862278686524345</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.05972887648799836</v>
+        <v>0.1282204596242932</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.6875786019044284</v>
+        <v>0.8787205230301425</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.6652956667534335</v>
+        <v>0.604170122161468</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.120056974993788</v>
+        <v>1.016226501297939</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.9758664560578</v>
+        <v>1.998496385560168</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.5513431164198285</v>
+        <v>0.6458980972582318</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.925080849700424</v>
+        <v>0.887069025075058</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.746121137065828</v>
+        <v>1.707122464468465</v>
       </c>
     </row>
     <row r="48">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.666832059503698</v>
+        <v>1.719981801507288</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.782157088875023</v>
+        <v>1.87027521824339</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.47794798967496</v>
+        <v>2.668932191307515</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.031117583195762</v>
+        <v>2.948855471186094</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.502774629837385</v>
+        <v>3.5352826213294</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.24286430263368</v>
+        <v>4.110487097087534</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.05567566067157</v>
+        <v>2.055683900944759</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.349740318955702</v>
+        <v>2.434035537937447</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.113801618681024</v>
+        <v>3.036919469456609</v>
       </c>
     </row>
     <row r="49">
@@ -2237,7 +2237,7 @@
         <v>0.3486191772010546</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.6504018022723776</v>
+        <v>0.6504018022723774</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.3369302025534935</v>
@@ -2246,7 +2246,7 @@
         <v>0.4324098600064086</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5789158273013901</v>
+        <v>0.5789158273013896</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3262531394157355</v>
@@ -2255,7 +2255,7 @@
         <v>0.4088121803096625</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6080252916770383</v>
+        <v>0.6080252916770387</v>
       </c>
     </row>
     <row r="50">
@@ -2266,31 +2266,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.03558634257476315</v>
+        <v>-0.01253311858829447</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01593623857403018</v>
+        <v>0.03266665200735361</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2146313820188481</v>
+        <v>0.2966453589127588</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1113552324009981</v>
+        <v>0.09802306418956731</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1857097376321045</v>
+        <v>0.1666749514512523</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3293811923171386</v>
+        <v>0.3236162215123238</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1304098957769113</v>
+        <v>0.1540391317471579</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2069190858996437</v>
+        <v>0.2015266273713338</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3996519797119414</v>
+        <v>0.3893202273906968</v>
       </c>
     </row>
     <row r="51">
@@ -2301,31 +2301,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.731966315383575</v>
+        <v>0.7678494531162547</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.82272352838878</v>
+        <v>0.8596580790278847</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.120780554481852</v>
+        <v>1.235630194984883</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6228451247664959</v>
+        <v>0.6041345348423924</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.747089634857664</v>
+        <v>0.7374344585759268</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9100614519753216</v>
+        <v>0.8551314576287248</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5613009789367566</v>
+        <v>0.5585859729694311</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6455747762859625</v>
+        <v>0.6726089481313972</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8594960629831337</v>
+        <v>0.8384339595993034</v>
       </c>
     </row>
     <row r="52">
